--- a/databases-backup/数据库表.xlsx
+++ b/databases-backup/数据库表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12562"/>
+    <workbookView windowWidth="21600" windowHeight="9885"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="110">
   <si>
     <t>t_carousel</t>
   </si>
@@ -227,7 +227,7 @@
     <t>varchar(10)</t>
   </si>
   <si>
-    <t>是否已读</t>
+    <t>1：已读          0：未读</t>
   </si>
   <si>
     <t>agencyDetail</t>
@@ -349,10 +349,7 @@
     <t>gender</t>
   </si>
   <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>姓别 true 表示男  false表示女</t>
+    <t>"男"或"女"</t>
   </si>
   <si>
     <t>content</t>
@@ -390,10 +387,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -419,6 +416,103 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -428,37 +522,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -473,36 +536,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -511,42 +544,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -607,187 +604,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -820,18 +817,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -851,15 +837,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -871,6 +848,50 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -889,175 +910,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1163,8 +1160,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="9385300" y="2019300"/>
-          <a:ext cx="636270" cy="504825"/>
+          <a:off x="9965690" y="2019300"/>
+          <a:ext cx="676275" cy="504825"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1213,8 +1210,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="9385300" y="2343150"/>
-          <a:ext cx="617220" cy="466725"/>
+          <a:off x="9965690" y="2343150"/>
+          <a:ext cx="657225" cy="466725"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1535,21 +1532,21 @@
   <sheetPr/>
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="2" width="16.5044247787611" customWidth="1"/>
-    <col min="3" max="3" width="14.5044247787611" customWidth="1"/>
-    <col min="5" max="5" width="13.7522123893805" customWidth="1"/>
-    <col min="6" max="6" width="14.5044247787611" customWidth="1"/>
-    <col min="7" max="7" width="45.6283185840708" customWidth="1"/>
-    <col min="9" max="10" width="13.6283185840708" customWidth="1"/>
-    <col min="11" max="11" width="14.2477876106195" customWidth="1"/>
-    <col min="12" max="12" width="12.1592920353982" customWidth="1"/>
-    <col min="13" max="13" width="12.283185840708" customWidth="1"/>
+    <col min="1" max="2" width="16.5083333333333" customWidth="1"/>
+    <col min="3" max="3" width="14.5083333333333" customWidth="1"/>
+    <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="14.5083333333333" customWidth="1"/>
+    <col min="7" max="7" width="45.625" customWidth="1"/>
+    <col min="9" max="10" width="13.625" customWidth="1"/>
+    <col min="11" max="11" width="23.375" customWidth="1"/>
+    <col min="12" max="12" width="12.1583333333333" customWidth="1"/>
+    <col min="13" max="13" width="12.2833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1" spans="1:11">
@@ -2044,30 +2041,30 @@
         <v>98</v>
       </c>
       <c r="F22" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="23" ht="21" customHeight="1" spans="1:7">
       <c r="A23" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>103</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" ht="21" customHeight="1" spans="1:7">
@@ -2081,24 +2078,24 @@
         <v>31</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" ht="21" customHeight="1" spans="1:7">
       <c r="A25" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>66</v>
@@ -2121,13 +2118,13 @@
         <v>73</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>23</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" ht="21" customHeight="1" spans="1:3">
@@ -2196,7 +2193,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
@@ -2213,7 +2210,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/databases-backup/数据库表.xlsx
+++ b/databases-backup/数据库表.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="112">
   <si>
     <t>t_carousel</t>
   </si>
@@ -380,6 +380,12 @@
   </si>
   <si>
     <t>职位</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>用户角色 有"普通管理员"与"超级管理员"超级管理员直接内置</t>
   </si>
 </sst>
 </file>
@@ -387,10 +393,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -417,14 +423,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -438,6 +451,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -446,16 +499,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -469,73 +522,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -544,11 +530,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -560,6 +545,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -604,55 +610,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,127 +778,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,23 +822,37 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -852,22 +872,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -887,178 +902,169 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1073,6 +1079,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1160,7 +1167,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="9965690" y="2019300"/>
+          <a:off x="10499090" y="2019300"/>
           <a:ext cx="676275" cy="504825"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1210,7 +1217,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="9965690" y="2343150"/>
+          <a:off x="10499090" y="2343150"/>
           <a:ext cx="657225" cy="466725"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1532,8 +1539,8 @@
   <sheetPr/>
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="D15" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1542,7 +1549,7 @@
     <col min="3" max="3" width="14.5083333333333" customWidth="1"/>
     <col min="5" max="5" width="13.75" customWidth="1"/>
     <col min="6" max="6" width="14.5083333333333" customWidth="1"/>
-    <col min="7" max="7" width="45.625" customWidth="1"/>
+    <col min="7" max="7" width="52.625" customWidth="1"/>
     <col min="9" max="10" width="13.625" customWidth="1"/>
     <col min="11" max="11" width="23.375" customWidth="1"/>
     <col min="12" max="12" width="12.1583333333333" customWidth="1"/>
@@ -1933,17 +1940,17 @@
         <v>77</v>
       </c>
       <c r="G17" s="5"/>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="J17" s="13" t="s">
+      <c r="J17" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="K17" s="13"/>
-      <c r="L17" s="12" t="s">
+      <c r="K17" s="14"/>
+      <c r="L17" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="M17" s="12" t="s">
+      <c r="M17" s="13" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2127,10 +2134,19 @@
         <v>109</v>
       </c>
     </row>
-    <row r="27" ht="21" customHeight="1" spans="1:3">
+    <row r="27" ht="21" customHeight="1" spans="1:7">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
+      <c r="E27" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="28" ht="21" customHeight="1" spans="1:3">
       <c r="A28" s="8"/>

--- a/databases-backup/数据库表.xlsx
+++ b/databases-backup/数据库表.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="113">
   <si>
     <t>t_carousel</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>lawyerId</t>
+  </si>
+  <si>
+    <t>主键，自增，律师工号</t>
   </si>
   <si>
     <t>replyDate</t>
@@ -395,8 +398,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -423,14 +426,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -438,6 +441,52 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,6 +500,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -459,113 +555,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -622,103 +625,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,60 +788,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,7 +835,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -843,15 +876,6 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -872,17 +896,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -901,170 +919,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1079,7 +1082,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1539,8 +1541,8 @@
   <sheetPr/>
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D15" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1802,94 +1804,94 @@
         <v>10</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" ht="21" customHeight="1" spans="1:11">
       <c r="A11" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" ht="21" customHeight="1" spans="1:11">
       <c r="A12" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>35</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" ht="21" customHeight="1" spans="1:7">
       <c r="A13" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" ht="21" customHeight="1" spans="1:7">
@@ -1897,13 +1899,13 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="E14" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>23</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" ht="21" customHeight="1" spans="1:7">
@@ -1911,13 +1913,13 @@
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="E15" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" ht="21" customHeight="1" spans="5:7">
@@ -1927,36 +1929,36 @@
     </row>
     <row r="17" ht="21" customHeight="1" spans="1:13">
       <c r="A17" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C17" s="5"/>
       <c r="E17" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G17" s="5"/>
-      <c r="I17" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="K17" s="14"/>
-      <c r="L17" s="13" t="s">
+      <c r="I17" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J17" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="M17" s="13" t="s">
+      <c r="K17" s="13"/>
+      <c r="L17" s="12" t="s">
         <v>80</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="18" ht="21" customHeight="1" spans="1:7">
       <c r="A18" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>10</v>
@@ -1976,102 +1978,102 @@
     </row>
     <row r="19" ht="54.75" customHeight="1" spans="1:7">
       <c r="A19" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>23</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" ht="21" customHeight="1" spans="1:7">
       <c r="A20" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" ht="21" customHeight="1" spans="1:7">
       <c r="A21" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" ht="21" customHeight="1" spans="1:7">
       <c r="A22" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" ht="21" customHeight="1" spans="1:7">
       <c r="A23" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" ht="21" customHeight="1" spans="1:7">
@@ -2085,67 +2087,67 @@
         <v>31</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" ht="21" customHeight="1" spans="1:7">
       <c r="A25" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" ht="21" customHeight="1" spans="1:7">
       <c r="A26" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>23</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" ht="21" customHeight="1" spans="1:7">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
-      <c r="E27" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F27" s="12" t="s">
+      <c r="E27" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="12" t="s">
-        <v>111</v>
+      <c r="G27" s="6" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="28" ht="21" customHeight="1" spans="1:3">

--- a/databases-backup/数据库表.xlsx
+++ b/databases-backup/数据库表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9885"/>
+    <workbookView windowWidth="24000" windowHeight="10290"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="162">
   <si>
     <t>t_carousel</t>
   </si>
@@ -203,9 +203,6 @@
     <t>lawyerId</t>
   </si>
   <si>
-    <t>主键，自增，律师工号</t>
-  </si>
-  <si>
     <t>replyDate</t>
   </si>
   <si>
@@ -230,7 +227,7 @@
     <t>varchar(10)</t>
   </si>
   <si>
-    <t>1：已读          0：未读</t>
+    <t>是否已读</t>
   </si>
   <si>
     <t>agencyDetail</t>
@@ -352,7 +349,10 @@
     <t>gender</t>
   </si>
   <si>
-    <t>"男"或"女"</t>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>姓别 true 表示男  false表示女</t>
   </si>
   <si>
     <t>content</t>
@@ -385,10 +385,292 @@
     <t>职位</t>
   </si>
   <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>用户角色 有"普通管理员"与"超级管理员"超级管理员直接内置</t>
+    <t>t_chargeType</t>
+  </si>
+  <si>
+    <t>罪名分类表</t>
+  </si>
+  <si>
+    <t>t_chargeTypeQuestion</t>
+  </si>
+  <si>
+    <t>罪名分类问答表</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>罪名分类名称</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hargeTypeId</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>罪名分类表i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>varchar(max)</t>
+  </si>
+  <si>
+    <t>问题</t>
+  </si>
+  <si>
+    <t>answer</t>
+  </si>
+  <si>
+    <t>回答</t>
+  </si>
+  <si>
+    <t>t_charge</t>
+  </si>
+  <si>
+    <t>罪名表</t>
+  </si>
+  <si>
+    <t>t_defenseDesc</t>
+  </si>
+  <si>
+    <t>刑辩介绍表</t>
+  </si>
+  <si>
+    <t>罪名名称</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aw</t>
+    </r>
+  </si>
+  <si>
+    <t>法律规定</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>团队优势介绍</t>
+  </si>
+  <si>
+    <t>sentenceRange</t>
+  </si>
+  <si>
+    <t>量刑范围</t>
+  </si>
+  <si>
+    <t xml:space="preserve">defense </t>
+  </si>
+  <si>
+    <t>辩护流程与方案</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_case</t>
+    </r>
+  </si>
+  <si>
+    <t>案例表</t>
+  </si>
+  <si>
+    <t>t_defenseAdvantage</t>
+  </si>
+  <si>
+    <t>刑辩优势表</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>charge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Id</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>罪名表i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>标题</t>
+  </si>
+  <si>
+    <t>案例标题</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>案例介绍</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>刑辩图标</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>办案过程</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>案件结果</t>
+  </si>
+  <si>
+    <t>lessions</t>
+  </si>
+  <si>
+    <t>经验心得</t>
+  </si>
+  <si>
+    <t>pubDate</t>
+  </si>
+  <si>
+    <t>发布日期</t>
+  </si>
+  <si>
+    <t>isSuccess</t>
+  </si>
+  <si>
+    <t>是否成功?1:0</t>
   </si>
 </sst>
 </file>
@@ -397,11 +679,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,6 +702,21 @@
     <font>
       <strike/>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -446,14 +743,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -470,13 +759,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -485,8 +767,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -500,70 +859,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,19 +892,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
+        <fgColor theme="3" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,31 +904,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,145 +1078,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,6 +1152,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -882,30 +1194,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -919,97 +1207,106 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1021,54 +1318,57 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1079,6 +1379,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1169,58 +1481,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="10499090" y="2019300"/>
+          <a:off x="10829925" y="2019300"/>
           <a:ext cx="676275" cy="504825"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直接箭头连接符 4"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="10499090" y="2343150"/>
-          <a:ext cx="657225" cy="466725"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1539,656 +1801,1130 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="2" width="16.5083333333333" customWidth="1"/>
-    <col min="3" max="3" width="14.5083333333333" customWidth="1"/>
-    <col min="5" max="5" width="13.75" customWidth="1"/>
-    <col min="6" max="6" width="14.5083333333333" customWidth="1"/>
-    <col min="7" max="7" width="52.625" customWidth="1"/>
+    <col min="1" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="24.25" customWidth="1"/>
+    <col min="6" max="6" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="45.625" customWidth="1"/>
     <col min="9" max="10" width="13.625" customWidth="1"/>
-    <col min="11" max="11" width="23.375" customWidth="1"/>
-    <col min="12" max="12" width="12.1583333333333" customWidth="1"/>
-    <col min="13" max="13" width="12.2833333333333" customWidth="1"/>
+    <col min="11" max="11" width="14.25" customWidth="1"/>
+    <col min="12" max="12" width="12.125" customWidth="1"/>
+    <col min="13" max="13" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="2"/>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="5" t="s">
+      <c r="J1" s="5"/>
+      <c r="K1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:11">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="I2" s="10" t="s">
+      <c r="G2" s="15"/>
+      <c r="I2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" ht="21" customHeight="1" spans="1:11">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" ht="21" customHeight="1" spans="1:11">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" ht="21" customHeight="1" spans="1:11">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" ht="21" customHeight="1" spans="1:11">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" ht="21" customHeight="1" spans="9:11">
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" ht="21" customHeight="1" spans="1:11">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="E8" s="4" t="s">
+      <c r="C8" s="6"/>
+      <c r="E8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" ht="21" customHeight="1" spans="1:11">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="I9" s="6" t="s">
+      <c r="G9" s="15"/>
+      <c r="I9" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="10" ht="21" customHeight="1" spans="1:11">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="J10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="J10" s="6" t="s">
+    </row>
+    <row r="11" ht="21" customHeight="1" spans="1:11">
+      <c r="A11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" ht="21" customHeight="1" spans="1:11">
+      <c r="A12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" ht="21" customHeight="1" spans="1:7">
+      <c r="A13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" ht="21" customHeight="1" spans="1:7">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="E14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" ht="21" customHeight="1" spans="1:7">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="E15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" ht="21" customHeight="1" spans="5:7">
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" ht="21" customHeight="1" spans="1:13">
+      <c r="A17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="I17" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17" s="18"/>
+      <c r="L17" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="M17" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" ht="21" customHeight="1" spans="1:7">
+      <c r="A18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" ht="54.75" customHeight="1" spans="1:7">
+      <c r="A19" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" ht="21" customHeight="1" spans="1:7">
+      <c r="A20" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" ht="21" customHeight="1" spans="1:7">
+      <c r="A21" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" ht="21" customHeight="1" spans="1:7">
+      <c r="A22" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" ht="21" customHeight="1" spans="1:7">
+      <c r="A23" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" ht="21" customHeight="1" spans="1:7">
+      <c r="A24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" ht="21" customHeight="1" spans="1:11">
-      <c r="A11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="C24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" ht="21" customHeight="1" spans="1:7">
+      <c r="A25" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" ht="21" customHeight="1" spans="1:7">
+      <c r="A26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" s="6" t="s">
+      <c r="G26" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" ht="21" customHeight="1" spans="1:3">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="24.95" customHeight="1"/>
+    <row r="29" s="1" customFormat="1" ht="24.95" customHeight="1"/>
+    <row r="30" s="1" customFormat="1" ht="24.95" customHeight="1"/>
+    <row r="31" s="1" customFormat="1" ht="24.95" customHeight="1"/>
+    <row r="32" s="1" customFormat="1" ht="24.95" customHeight="1"/>
+    <row r="33" s="1" customFormat="1" ht="24.95" customHeight="1"/>
+    <row r="34" ht="24.95" customHeight="1" spans="1:7">
+      <c r="A34" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" ht="24.95" customHeight="1" spans="1:7">
+      <c r="A35" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" ht="24.95" customHeight="1" spans="1:7">
+      <c r="A36" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" ht="24.95" customHeight="1" spans="1:7">
+      <c r="A37" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" ht="24.95" customHeight="1" spans="1:7">
+      <c r="A38" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" ht="24.95" customHeight="1" spans="1:7">
+      <c r="A39" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" ht="21" customHeight="1" spans="1:11">
-      <c r="A12" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K12" s="6" t="s">
+      <c r="C39" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" ht="24.95" customHeight="1" spans="1:7">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="E40" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" ht="24.95" customHeight="1" spans="1:7">
+      <c r="A41" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="E41" s="13" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="13" ht="21" customHeight="1" spans="1:7">
-      <c r="A13" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" ht="21" customHeight="1" spans="1:7">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="E14" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="6" t="s">
+      <c r="F41" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" ht="24.95" customHeight="1" spans="1:3">
+      <c r="A42" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" ht="24.95" customHeight="1" spans="1:7">
+      <c r="A43" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G43" s="12"/>
+    </row>
+    <row r="44" ht="24.95" customHeight="1" spans="1:7">
+      <c r="A44" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="C44" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" ht="24.95" customHeight="1" spans="1:7">
+      <c r="A45" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" ht="24.95" customHeight="1" spans="1:7">
+      <c r="A46" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" ht="24.95" customHeight="1" spans="1:7">
+      <c r="A47" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" ht="24.95" customHeight="1" spans="1:7">
+      <c r="A48" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G48" s="13" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" ht="21" customHeight="1" spans="1:7">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="E15" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" ht="21" customHeight="1" spans="5:7">
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" ht="21" customHeight="1" spans="1:13">
-      <c r="A17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="E17" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="I17" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="K17" s="13"/>
-      <c r="L17" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="M17" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" ht="21" customHeight="1" spans="1:7">
-      <c r="A18" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="6" t="s">
+    <row r="49" ht="24.95" customHeight="1" spans="1:3">
+      <c r="A49" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C49" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" ht="24.95" customHeight="1" spans="1:3">
+      <c r="A50" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" ht="24.95" customHeight="1"/>
+    <row r="52" ht="24.95" customHeight="1" spans="1:7">
+      <c r="A52" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C52" s="12"/>
+      <c r="E52" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="G52" s="12"/>
+    </row>
+    <row r="53" ht="24.95" customHeight="1" spans="1:7">
+      <c r="A53" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E53" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F53" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" ht="24.95" customHeight="1" spans="1:7">
+      <c r="A54" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="55" ht="24.95" customHeight="1" spans="1:7">
+      <c r="A55" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G55" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="56" ht="24.95" customHeight="1" spans="1:7">
+      <c r="A56" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="57" ht="24.95" customHeight="1" spans="1:7">
+      <c r="A57" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" ht="24.95" customHeight="1" spans="1:7">
+      <c r="A58" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F58" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A19" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" s="6" t="s">
+      <c r="G58" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B63" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" ht="21" customHeight="1" spans="1:7">
-      <c r="A20" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" ht="21" customHeight="1" spans="1:7">
-      <c r="A21" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" ht="21" customHeight="1" spans="1:7">
-      <c r="A22" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" ht="21" customHeight="1" spans="1:7">
-      <c r="A23" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" ht="21" customHeight="1" spans="1:7">
-      <c r="A24" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" ht="21" customHeight="1" spans="1:7">
-      <c r="A25" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="6" t="s">
+      <c r="C63" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" ht="21" customHeight="1" spans="1:7">
-      <c r="A26" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" ht="21" customHeight="1" spans="1:7">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="E27" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" ht="21" customHeight="1" spans="1:3">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-    </row>
-    <row r="29" ht="21" customHeight="1" spans="1:3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-    </row>
-    <row r="30" ht="21" customHeight="1" spans="1:3">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/databases-backup/数据库表.xlsx
+++ b/databases-backup/数据库表.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="164">
   <si>
     <t>t_carousel</t>
   </si>
@@ -400,7 +400,7 @@
     <t>int</t>
   </si>
   <si>
-    <t>name</t>
+    <t>chargeTypeName</t>
   </si>
   <si>
     <t>罪名分类名称</t>
@@ -493,10 +493,16 @@
     <t>罪名表</t>
   </si>
   <si>
+    <t>外键，引用罪名分类表id</t>
+  </si>
+  <si>
     <t>t_defenseDesc</t>
   </si>
   <si>
     <t>刑辩介绍表</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
   <si>
     <t>罪名名称</t>
@@ -679,11 +685,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -707,21 +713,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -736,6 +727,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -743,16 +742,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -762,6 +761,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -783,14 +797,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -800,10 +806,17 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -816,8 +829,15 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -837,35 +857,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -877,7 +868,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -910,7 +901,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,175 +1057,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1128,15 +1107,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1148,6 +1118,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1182,17 +1170,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1210,157 +1187,159 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1380,7 +1359,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1389,7 +1368,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1481,7 +1460,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="10829925" y="2019300"/>
+          <a:off x="11506200" y="2019300"/>
           <a:ext cx="676275" cy="504825"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1803,14 +1782,14 @@
   <sheetPr/>
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="23.375" customWidth="1"/>
     <col min="5" max="5" width="24.25" customWidth="1"/>
     <col min="6" max="6" width="15.375" customWidth="1"/>
     <col min="7" max="7" width="45.625" customWidth="1"/>
@@ -2582,25 +2561,25 @@
         <v>119</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G43" s="12"/>
     </row>
     <row r="44" ht="24.95" customHeight="1" spans="1:7">
       <c r="A44" s="13" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="B44" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E44" s="13" t="s">
         <v>9</v>
@@ -2614,33 +2593,33 @@
     </row>
     <row r="45" ht="24.95" customHeight="1" spans="1:7">
       <c r="A45" s="14" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B45" s="14" t="s">
         <v>122</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F45" s="14" t="s">
         <v>122</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" ht="24.95" customHeight="1" spans="1:7">
       <c r="A46" s="14" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>122</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E46" s="13" t="s">
         <v>29</v>
@@ -2654,13 +2633,13 @@
     </row>
     <row r="47" ht="24.95" customHeight="1" spans="1:7">
       <c r="A47" s="14" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B47" s="14" t="s">
         <v>122</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E47" s="13" t="s">
         <v>107</v>
@@ -2717,17 +2696,17 @@
     <row r="51" ht="24.95" customHeight="1"/>
     <row r="52" ht="24.95" customHeight="1" spans="1:7">
       <c r="A52" s="11" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C52" s="12"/>
       <c r="E52" s="11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G52" s="12"/>
     </row>
@@ -2753,33 +2732,33 @@
     </row>
     <row r="54" ht="24.95" customHeight="1" spans="1:7">
       <c r="A54" s="14" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B54" s="14" t="s">
         <v>119</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F54" s="14" t="s">
         <v>122</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" ht="24.95" customHeight="1" spans="1:7">
       <c r="A55" s="14" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E55" s="14" t="s">
         <v>101</v>
@@ -2788,38 +2767,38 @@
         <v>122</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" ht="24.95" customHeight="1" spans="1:7">
       <c r="A56" s="14" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>122</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F56" s="14" t="s">
         <v>122</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57" ht="24.95" customHeight="1" spans="1:7">
       <c r="A57" s="14" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>122</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E57" s="13" t="s">
         <v>29</v>
@@ -2833,13 +2812,13 @@
     </row>
     <row r="58" ht="24.95" customHeight="1" spans="1:7">
       <c r="A58" s="14" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>122</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E58" s="13" t="s">
         <v>107</v>
@@ -2853,13 +2832,13 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="14" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B59" s="14" t="s">
         <v>122</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E59" s="13" t="s">
         <v>66</v>
@@ -2873,24 +2852,24 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="14" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B60" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="14" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B61" s="14" t="s">
         <v>115</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="62" spans="1:3">

--- a/databases-backup/数据库表.xlsx
+++ b/databases-backup/数据库表.xlsx
@@ -502,32 +502,13 @@
     <t>刑辩介绍表</t>
   </si>
   <si>
-    <t>name</t>
+    <t>chargeName</t>
   </si>
   <si>
     <t>罪名名称</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>l</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>aw</t>
-    </r>
+    <t>lawContent</t>
   </si>
   <si>
     <t>法律规定</t>
@@ -685,9 +666,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -714,22 +695,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -751,6 +717,21 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -760,14 +741,23 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -805,7 +795,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -820,24 +809,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -850,8 +823,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -901,19 +882,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,151 +1032,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1101,8 +1082,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1118,24 +1123,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1170,17 +1157,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1198,148 +1179,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1782,8 +1763,8 @@
   <sheetPr/>
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/databases-backup/数据库表.xlsx
+++ b/databases-backup/数据库表.xlsx
@@ -450,26 +450,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>罪名分类表i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>d</t>
-    </r>
+    <t>外键，引用 罪名分类表id</t>
   </si>
   <si>
     <t>question</t>
@@ -665,10 +646,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -695,7 +676,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -708,11 +689,118 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -731,113 +819,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -882,175 +863,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1083,61 +1064,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1160,8 +1087,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1176,151 +1103,205 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1763,8 +1744,8 @@
   <sheetPr/>
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/databases-backup/数据库表.xlsx
+++ b/databases-backup/数据库表.xlsx
@@ -568,26 +568,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>罪名表i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>d</t>
-    </r>
+    <t>外键，引用罪名表id</t>
   </si>
   <si>
     <t>title</t>
@@ -629,7 +610,7 @@
     <t>经验心得</t>
   </si>
   <si>
-    <t>pubDate</t>
+    <t>publishDate</t>
   </si>
   <si>
     <t>发布日期</t>
@@ -648,8 +629,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -676,14 +657,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -696,31 +670,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -735,6 +701,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -744,7 +733,22 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -760,15 +764,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -789,31 +785,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -863,13 +844,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,157 +1006,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1063,8 +1044,71 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1086,15 +1130,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1103,205 +1138,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1744,8 +1725,8 @@
   <sheetPr/>
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/databases-backup/数据库表.xlsx
+++ b/databases-backup/数据库表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="10290"/>
+    <workbookView windowWidth="24000" windowHeight="9885"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -616,7 +616,7 @@
     <t>发布日期</t>
   </si>
   <si>
-    <t>isSuccess</t>
+    <t>isuccessFlag</t>
   </si>
   <si>
     <t>是否成功?1:0</t>
@@ -627,10 +627,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -657,13 +657,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -671,10 +664,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -693,11 +694,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -709,10 +710,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -724,9 +742,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -741,38 +773,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -786,15 +794,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -844,19 +844,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,151 +1012,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1044,17 +1044,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1074,11 +1065,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1098,36 +1119,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1138,151 +1129,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1726,7 +1726,7 @@
   <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/databases-backup/数据库表.xlsx
+++ b/databases-backup/数据库表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9885"/>
+    <workbookView windowWidth="18000" windowHeight="6330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="164">
   <si>
     <t>t_carousel</t>
   </si>
@@ -627,10 +627,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -663,11 +663,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -680,7 +702,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -702,6 +724,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -710,17 +740,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -734,67 +793,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -844,175 +844,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1044,8 +1044,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1061,6 +1079,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1081,30 +1110,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1119,170 +1124,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1725,8 +1725,8 @@
   <sheetPr/>
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2512,7 +2512,9 @@
       <c r="F43" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="G43" s="12"/>
+      <c r="G43" s="12" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="44" ht="24.95" customHeight="1" spans="1:7">
       <c r="A44" s="13" t="s">

--- a/databases-backup/数据库表.xlsx
+++ b/databases-backup/数据库表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18000" windowHeight="6330"/>
+    <workbookView windowWidth="24000" windowHeight="9885"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -628,9 +628,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -657,37 +657,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -702,9 +679,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -724,19 +709,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -749,7 +742,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -764,15 +772,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -785,18 +785,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -856,163 +856,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1050,24 +1050,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1079,6 +1061,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1124,165 +1130,159 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1725,8 +1725,8 @@
   <sheetPr/>
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="B44" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/databases-backup/数据库表.xlsx
+++ b/databases-backup/数据库表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9885"/>
+    <workbookView windowWidth="24000" windowHeight="9585"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -627,10 +627,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -657,39 +657,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -709,6 +701,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -725,16 +732,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -748,9 +754,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -771,32 +784,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -844,37 +844,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,133 +1012,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1065,6 +1065,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1084,7 +1093,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1114,175 +1138,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1726,7 +1726,7 @@
   <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B44" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/databases-backup/数据库表.xlsx
+++ b/databases-backup/数据库表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9585"/>
+    <workbookView windowWidth="24000" windowHeight="9885"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="166">
   <si>
     <t>t_carousel</t>
   </si>
@@ -621,16 +621,22 @@
   <si>
     <t>是否成功?1:0</t>
   </si>
+  <si>
+    <t>picUrl</t>
+  </si>
+  <si>
+    <t>图片地址</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -657,14 +663,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -678,55 +715,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -739,8 +730,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -749,21 +756,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -778,23 +770,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -811,7 +817,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -844,19 +850,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,55 +1012,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -928,91 +1024,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1050,6 +1062,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1074,26 +1095,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1124,16 +1136,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1141,152 +1153,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1320,6 +1332,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1723,10 +1736,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B44" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="B50" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2848,6 +2861,14 @@
       </c>
       <c r="C64" s="13" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
